--- a/biology/Médecine/Karl_Friedrich_Heusinger/Karl_Friedrich_Heusinger.xlsx
+++ b/biology/Médecine/Karl_Friedrich_Heusinger/Karl_Friedrich_Heusinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Friedrich Heusinger (né le 28 février 1792 – mort le 5 mai 1883) est un pathologiste allemand. Il est considéré comme un pionnier dans le domaine de la pathologie comparée.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Heusinger étudie la médecine à Iéna et Marbourg. Il est par la suite assistant de Karl Gustav Himly (1772–1837) à l'université de Göttingen. En 1813, il est médecin militaire dans l'armée prussienne. En 1821, il devient professeur à l'université d'Iéna, où il devient membre du Corps Thuringia Jena, puis à l'université de Wurtzbourg en 1824. À partir de 1829, il passe le reste de sa carrière à l'université de Marbourg.
-En 1829, il publie Grundriß der physischen und psychischen Anthropologie, une œuvre influente d'anthropologie. Parmi ses autres œuvres, on retrouve une traduction du Précis élémentaire de physiologie de François Magendie's (1783-1855) ainsi qu'une correspondance écrite avec Charles Darwin et un traité de géophagie intitulé Die sogenannte Geophagie oder tropische (besser: Malaria-) Chlorose als Krankheit aller Länder und Klimate[1].
-En 1864, il est le premier à décrire la malformation congénitale du sinus préauriculaire[2], aussi appelée fistule pré-hélicéenne.
+En 1829, il publie Grundriß der physischen und psychischen Anthropologie, une œuvre influente d'anthropologie. Parmi ses autres œuvres, on retrouve une traduction du Précis élémentaire de physiologie de François Magendie's (1783-1855) ainsi qu'une correspondance écrite avec Charles Darwin et un traité de géophagie intitulé Die sogenannte Geophagie oder tropische (besser: Malaria-) Chlorose als Krankheit aller Länder und Klimate.
+En 1864, il est le premier à décrire la malformation congénitale du sinus préauriculaire, aussi appelée fistule pré-hélicéenne.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Entzündung und Vergrößerung der Milz, (Inflammation et grossissement de la rate), Eisenach 1820 à 1823.
 (de) Grundriß der physischen und psychischen Anthropologie. Eisenach 1829. (Traité d'anthropologie physique et psychologique).
 (de) Grundriß der Encyklopädie und Methodologie der Natur- und Heilkunde. Eisenach 1839.
 (fr) Recherches de pathologie comparée. Cassel (Hesse) 1844–53, deux volumes.
-(de) Die sogenannte Geophagie oder tropische (besser: Malaria-) Chlorose als Krankheit aller Länder und Klimate[1] - La soi-disant géophagie, ou la (mieux : paludisme) chlorose tropicale comme une maladie de toute terre et climats.</t>
+(de) Die sogenannte Geophagie oder tropische (besser: Malaria-) Chlorose als Krankheit aller Länder und Klimate - La soi-disant géophagie, ou la (mieux : paludisme) chlorose tropicale comme une maladie de toute terre et climats.</t>
         </is>
       </c>
     </row>
